--- a/data/2017_Silverman_et_al-isotope_data_summary.xlsx
+++ b/data/2017_Silverman_et_al-isotope_data_summary.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">organism</t>
   </si>
   <si>
     <t xml:space="preserve">pN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_bio_reps</t>
   </si>
   <si>
     <t xml:space="preserve">eps_mean</t>
@@ -374,116 +377,143 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
         <v>-1.85848762265377</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.0258631056240202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>0.3</v>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
         <v>-2.05519815922711</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.0733911541653927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>-2.25720191491222</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.0271967152611363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>-2.44900334135266</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.0132750348147391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>0.1</v>
       </c>
       <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>-2.19949805132303</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.000982948312228415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
         <v>0.3</v>
       </c>
       <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>-2.30182662724558</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.0193573969967369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>0.5</v>
       </c>
       <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>-2.37908662212872</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.0393637679547269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
         <v>0.8</v>
       </c>
       <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>-2.4648871967107</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.0302263180810171</v>
       </c>
     </row>

--- a/data/2017_Silverman_et_al-isotope_data_summary.xlsx
+++ b/data/2017_Silverman_et_al-isotope_data_summary.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">organism</t>
   </si>
   <si>
     <t xml:space="preserve">pN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma_analytical</t>
   </si>
   <si>
     <t xml:space="preserve">n_bio_reps</t>
@@ -380,140 +383,167 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
+        <v>0.084195259341794</v>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-1.85848762265377</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0258631056240202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>0.3</v>
       </c>
       <c r="C3" t="n">
+        <v>0.084195259341794</v>
+      </c>
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-2.05519815922711</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0733911541653927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
+        <v>0.084195259341794</v>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-2.25720191491222</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0271967152611363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
+        <v>0.084195259341794</v>
+      </c>
+      <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-2.44900334135266</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0132750348147391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>0.1</v>
       </c>
       <c r="C6" t="n">
+        <v>0.084195259341794</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-2.19949805132303</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.000982948312228415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>0.3</v>
       </c>
       <c r="C7" t="n">
+        <v>0.084195259341794</v>
+      </c>
+      <c r="D7" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-2.30182662724558</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.0193573969967369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
         <v>0.5</v>
       </c>
       <c r="C8" t="n">
+        <v>0.084195259341794</v>
+      </c>
+      <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-2.37908662212872</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.0393637679547269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>0.8</v>
       </c>
       <c r="C9" t="n">
+        <v>0.084195259341794</v>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-2.4648871967107</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.0302263180810171</v>
       </c>
     </row>

--- a/data/2017_Silverman_et_al-isotope_data_summary.xlsx
+++ b/data/2017_Silverman_et_al-isotope_data_summary.xlsx
@@ -401,10 +401,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.85848762265377</v>
+        <v>-1.12586967030865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0258631056240202</v>
+        <v>0.0258820886792587</v>
       </c>
     </row>
     <row r="3">
@@ -421,10 +421,10 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.05519815922711</v>
+        <v>-1.32272458888468</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0733911541653927</v>
+        <v>0.0734450219550982</v>
       </c>
     </row>
     <row r="4">
@@ -441,10 +441,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.25720191491222</v>
+        <v>-1.52487661170029</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0271967152611363</v>
+        <v>0.0272166771619255</v>
       </c>
     </row>
     <row r="5">
@@ -461,10 +461,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.44900334135266</v>
+        <v>-1.71681881694467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0132750348147391</v>
+        <v>0.0132847784520013</v>
       </c>
     </row>
     <row r="6">
@@ -481,10 +481,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.19949805132303</v>
+        <v>-1.46713039451101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000982948312228415</v>
+        <v>0.00098366977862957</v>
       </c>
     </row>
     <row r="7">
@@ -501,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.30182662724558</v>
+        <v>-1.56953407777144</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0193573969967369</v>
+        <v>0.0193716049786872</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.37908662212872</v>
+        <v>-1.64685078010391</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0393637679547269</v>
+        <v>0.0393926602537957</v>
       </c>
     </row>
     <row r="9">
@@ -541,10 +541,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.4648871967107</v>
+        <v>-1.73271433076741</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0302263180810171</v>
+        <v>0.0302485036558925</v>
       </c>
     </row>
   </sheetData>
